--- a/docs/12_분석용데이터셋예시/Output제공용_데이터셋_ver1.0.xlsx
+++ b/docs/12_분석용데이터셋예시/Output제공용_데이터셋_ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\onad\OnAD_project\docs\12_분석용데이터셋예시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F361A65-F132-4B0D-8722-9F8CC401A49A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1369382-BF27-4496-A936-67F6C22C640C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{5EA00955-7F6F-4937-AEF5-AF93709C91C7}"/>
   </bookViews>
@@ -392,6 +392,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +721,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -760,7 +760,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -777,7 +777,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,12 +790,12 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,12 +814,12 @@
       <c r="G4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -832,7 +832,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -866,7 +866,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -913,7 +913,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -922,7 +922,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -943,7 +943,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -995,7 +995,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1010,7 +1010,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1043,7 +1043,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1060,7 +1060,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
